--- a/medicine/Enfance/Gretha_Stevns/Gretha_Stevns.xlsx
+++ b/medicine/Enfance/Gretha_Stevns/Gretha_Stevns.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gretha Stevns est le pseudonyme féminin de Daniel Jacob Eilif Mortensen (né le 14 janvier 1916 et mort en 1989), un écrivain danois de romans pour la jeunesse. Il a également écrit sous le pseudonyme de Peter Pløk et sous son vrai nom.
 En France, il est connu grâce à la série de romans pour la jeunesse Susy, parue de 1957 à 1977 aux éditions G. P. dans la collection Rouge et Or.
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Jacob Eilif Mortensen commence sa carrière d'écrivain en 1943. Marié en 1942 à Grethe Hansen-Stevns, il utilise un pseudonyme féminin inspiré du nom de son épouse pour écrire deux séries pour filles : Susy et Pernille, parues respectivement de 1943 à 1964 et de 1949 à 1957 au Danemark.
-Sous son patronyme d'Eilif Mortansson, il est l'auteur d'une série pour garçons : Magnus Heinason[1], aventures d'un pirate au XVIe siècle, également inédite en France.
+Sous son patronyme d'Eilif Mortansson, il est l'auteur d'une série pour garçons : Magnus Heinason, aventures d'un pirate au XVIe siècle, également inédite en France.
 À partir de 1949 il écrit quelques romans dont le plus connu est Malan (1952), histoire d'une belle et ensorcelante jeune fille.
-Son œuvre - principalement les séries - a été traduite en allemand[2], espagnol, portugais[3],[4], suédois et norvégien et croate[5].
+Son œuvre - principalement les séries - a été traduite en allemand, espagnol, portugais suédois et norvégien et croate.
 </t>
         </is>
       </c>
